--- a/03_plots_and_tables/t_test.xlsx
+++ b/03_plots_and_tables/t_test.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,44 +365,24 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Cdif_post</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Cdif_pre</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>donor</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>healthy_donors</t>
+          <t>CDI</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="B2" t="inlineStr">
         <is>
-          <t>(N=38)</t>
+          <t>(N=437)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>(N=18)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>(N=38)</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>(N=36)</t>
+          <t>(N=73)</t>
         </is>
       </c>
     </row>
@@ -421,22 +401,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.204 (0, 0.995)</t>
+          <t>0.477 (0.0130, 1.00)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.0294 (0, 0.210)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.769 (0.0680, 1.00)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0.484 (0.0330, 0.996)</t>
+          <t>0.0262 (0.00500, 0.0820)</t>
         </is>
       </c>
     </row>
@@ -455,22 +425,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.217 (0, 0.985)</t>
+          <t>0.481 (0.00800, 1.00)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.0416 (0, 0.323)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.817 (0.0960, 1.00)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0.491 (0.0290, 0.994)</t>
+          <t>0.0302 (0.00400, 0.116)</t>
         </is>
       </c>
     </row>
@@ -489,22 +449,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.523 (0.00100, 1.00)</t>
+          <t>0.481 (0.00800, 1.00)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.240 (0, 0.953)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.982 (0.668, 1.00)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0.491 (0.0290, 0.994)</t>
+          <t>0.0253 (0.00400, 0.0930)</t>
         </is>
       </c>
     </row>
@@ -523,22 +473,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.261 (0.00100, 0.998)</t>
+          <t>0.474 (0.0200, 1.00)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.0594 (0, 0.428)</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.870 (0.140, 1.00)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0.489 (0.0340, 0.996)</t>
+          <t>0.0436 (0.0140, 0.122)</t>
         </is>
       </c>
     </row>
@@ -557,22 +497,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.138 (0, 0.986)</t>
+          <t>0.482 (0.00500, 0.999)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.0327 (0, 0.279)</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.822 (0.0550, 1.00)</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.500 (0.0300, 1.00)</t>
+          <t>0.00885 (0.00100, 0.0250)</t>
         </is>
       </c>
     </row>
@@ -591,22 +521,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1.00 (0.997, 1.00)</t>
+          <t>0.531 (0, 0.948)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.00 (1.00, 1.00)</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.973 (0.497, 1.00)</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.483 (0.00800, 0.975)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
     </row>
@@ -625,22 +545,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.902 (0.113, 1.00)</t>
+          <t>0.494 (0.0240, 0.999)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.902 (0.140, 1.00)</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.799 (0.308, 1.00)</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.446 (0.0370, 0.970)</t>
+          <t>0.480 (0.0160, 0.973)</t>
         </is>
       </c>
     </row>
@@ -659,22 +569,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.0985 (0, 0.705)</t>
+          <t>0.520 (0, 0.915)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.0888 (0, 0.675)</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.424 (0.00700, 0.825)</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0.598 (0.138, 0.936)</t>
+          <t>0.405 (0.0110, 0.887)</t>
         </is>
       </c>
     </row>
@@ -693,22 +593,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0.0913 (0, 0.816)</t>
+          <t>0.511 (0, 0.965)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.0112 (0, 0.0990)</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.659 (0.0400, 1.00)</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0.543 (0.0130, 0.982)</t>
+          <t>0.180 (0.00300, 0.628)</t>
         </is>
       </c>
     </row>
@@ -727,22 +617,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0.115 (0, 0.828)</t>
+          <t>0.536 (0, 0.792)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.0494 (0, 0.439)</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.711 (0.0510, 0.980)</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>0.601 (0.0490, 0.919)</t>
+          <t>0.371 (0.00100, 0.728)</t>
         </is>
       </c>
     </row>

--- a/03_plots_and_tables/t_test.xlsx
+++ b/03_plots_and_tables/t_test.xlsx
@@ -377,7 +377,7 @@
     <row r="2">
       <c r="B2" t="inlineStr">
         <is>
-          <t>(N=437)</t>
+          <t>(N=177)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -401,12 +401,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.477 (0.0130, 1.00)</t>
+          <t>0.471 (0.0120, 1.00)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.0262 (0.00500, 0.0820)</t>
+          <t>0.0243 (0.00500, 0.0760)</t>
         </is>
       </c>
     </row>
@@ -425,12 +425,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.481 (0.00800, 1.00)</t>
+          <t>0.471 (0.0110, 0.991)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.0302 (0.00400, 0.116)</t>
+          <t>0.0288 (0.00400, 0.110)</t>
         </is>
       </c>
     </row>
@@ -449,12 +449,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.481 (0.00800, 1.00)</t>
+          <t>0.471 (0.0110, 0.991)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.0253 (0.00400, 0.0930)</t>
+          <t>0.0242 (0.00400, 0.0880)</t>
         </is>
       </c>
     </row>
@@ -473,12 +473,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.474 (0.0200, 1.00)</t>
+          <t>0.463 (0.0240, 0.994)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.0436 (0.0140, 0.122)</t>
+          <t>0.0423 (0.0140, 0.117)</t>
         </is>
       </c>
     </row>
@@ -497,12 +497,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.482 (0.00500, 0.999)</t>
+          <t>0.476 (0.0100, 0.987)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.00885 (0.00100, 0.0250)</t>
+          <t>0.00855 (0.00100, 0.0230)</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.531 (0, 0.948)</t>
+          <t>0.538 (0, 0.947)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -545,12 +545,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.494 (0.0240, 0.999)</t>
+          <t>0.486 (0.0280, 0.999)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.480 (0.0160, 0.973)</t>
+          <t>0.507 (0.0230, 0.975)</t>
         </is>
       </c>
     </row>
@@ -569,12 +569,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.520 (0, 0.915)</t>
+          <t>0.537 (0, 0.920)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.405 (0.0110, 0.887)</t>
+          <t>0.390 (0.00900, 0.877)</t>
         </is>
       </c>
     </row>
@@ -593,12 +593,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0.511 (0, 0.965)</t>
+          <t>0.524 (0, 0.961)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.180 (0.00300, 0.628)</t>
+          <t>0.170 (0.00300, 0.605)</t>
         </is>
       </c>
     </row>
@@ -617,12 +617,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0.536 (0, 0.792)</t>
+          <t>0.559 (0, 0.799)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.371 (0.00100, 0.728)</t>
+          <t>0.359 (0.00100, 0.729)</t>
         </is>
       </c>
     </row>

--- a/03_plots_and_tables/t_test.xlsx
+++ b/03_plots_and_tables/t_test.xlsx
@@ -377,7 +377,7 @@
     <row r="2">
       <c r="B2" t="inlineStr">
         <is>
-          <t>(N=177)</t>
+          <t>(N=437)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -401,12 +401,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.471 (0.0120, 1.00)</t>
+          <t>0.477 (0.0130, 1.00)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.0243 (0.00500, 0.0760)</t>
+          <t>0.0262 (0.00500, 0.0820)</t>
         </is>
       </c>
     </row>
@@ -425,12 +425,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.471 (0.0110, 0.991)</t>
+          <t>0.481 (0.00800, 1.00)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.0288 (0.00400, 0.110)</t>
+          <t>0.0302 (0.00400, 0.116)</t>
         </is>
       </c>
     </row>
@@ -449,12 +449,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.471 (0.0110, 0.991)</t>
+          <t>0.481 (0.00800, 1.00)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.0242 (0.00400, 0.0880)</t>
+          <t>0.0253 (0.00400, 0.0930)</t>
         </is>
       </c>
     </row>
@@ -473,12 +473,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.463 (0.0240, 0.994)</t>
+          <t>0.474 (0.0200, 1.00)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.0423 (0.0140, 0.117)</t>
+          <t>0.0436 (0.0140, 0.122)</t>
         </is>
       </c>
     </row>
@@ -497,12 +497,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.476 (0.0100, 0.987)</t>
+          <t>0.482 (0.00500, 0.999)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.00855 (0.00100, 0.0230)</t>
+          <t>0.00885 (0.00100, 0.0250)</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.538 (0, 0.947)</t>
+          <t>0.531 (0, 0.948)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -545,12 +545,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.486 (0.0280, 0.999)</t>
+          <t>0.494 (0.0240, 0.999)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.507 (0.0230, 0.975)</t>
+          <t>0.480 (0.0160, 0.973)</t>
         </is>
       </c>
     </row>
@@ -569,12 +569,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.537 (0, 0.920)</t>
+          <t>0.520 (0, 0.915)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.390 (0.00900, 0.877)</t>
+          <t>0.405 (0.0110, 0.887)</t>
         </is>
       </c>
     </row>
@@ -593,12 +593,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0.524 (0, 0.961)</t>
+          <t>0.511 (0, 0.965)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.170 (0.00300, 0.605)</t>
+          <t>0.180 (0.00300, 0.628)</t>
         </is>
       </c>
     </row>
@@ -617,12 +617,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0.559 (0, 0.799)</t>
+          <t>0.536 (0, 0.792)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.359 (0.00100, 0.729)</t>
+          <t>0.371 (0.00100, 0.728)</t>
         </is>
       </c>
     </row>
